--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T04:00:39+00:00</t>
+    <t>2022-05-27T00:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T00:47:13+00:00</t>
+    <t>2022-06-03T08:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T08:32:56+00:00</t>
+    <t>2022-06-03T11:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T11:27:25+00:00</t>
+    <t>2022-06-06T06:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T06:32:48+00:00</t>
+    <t>2022-06-10T04:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T04:14:00+00:00</t>
+    <t>2022-06-15T04:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:28:17+00:00</t>
+    <t>2022-06-15T04:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:45:08+00:00</t>
+    <t>2022-06-15T08:13:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T08:13:49+00:00</t>
+    <t>2022-06-15T10:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T10:17:15+00:00</t>
+    <t>2022-06-16T12:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T12:05:36+00:00</t>
+    <t>2022-06-25T22:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:09:58+00:00</t>
+    <t>2022-06-27T00:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T00:53:40+00:00</t>
+    <t>2022-06-27T01:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:00:07+00:00</t>
+    <t>2022-06-27T21:09:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T21:09:13+00:00</t>
+    <t>2022-06-30T01:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T01:36:20+00:00</t>
+    <t>2022-07-04T15:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:21:33+00:00</t>
+    <t>2022-07-05T01:39:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T01:39:44+00:00</t>
+    <t>2022-07-05T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T07:48:49+00:00</t>
+    <t>2022-07-05T09:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T09:56:47+00:00</t>
+    <t>2022-07-05T11:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:03:40+00:00</t>
+    <t>2022-07-05T11:21:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:21:31+00:00</t>
+    <t>2022-07-05T11:53:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:53:10+00:00</t>
+    <t>2022-07-05T12:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP JFAGY (Allerg" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core JFAGY (A" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP AllergyIntolerance Codes Food</t>
+    <t>JP Core AllergyIntolerance Codes Food</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:20:40+00:00</t>
+    <t>2022-07-05T12:37:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:37:35+00:00</t>
+    <t>2022-07-08T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T08:06:50+00:00</t>
+    <t>2022-07-12T21:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T21:24:25+00:00</t>
+    <t>2022-07-14T01:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T01:49:20+00:00</t>
+    <t>2022-07-14T04:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:10:20+00:00</t>
+    <t>2022-07-14T04:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:18:12+00:00</t>
+    <t>2022-07-14T04:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:33:17+00:00</t>
+    <t>2022-07-14T07:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:06:43+00:00</t>
+    <t>2022-07-14T07:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:22:28+00:00</t>
+    <t>2022-07-14T08:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:18:43+00:00</t>
+    <t>2022-07-14T08:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:30:52+00:00</t>
+    <t>2022-07-14T08:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:34:38+00:00</t>
+    <t>2022-07-14T11:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:13+00:00</t>
+    <t>2022-07-14T12:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:04:06+00:00</t>
+    <t>2022-07-14T20:50:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:50:50+00:00</t>
+    <t>2022-07-14T20:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:54:56+00:00</t>
+    <t>2022-07-14T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:19:27+00:00</t>
+    <t>2022-07-14T21:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:46:04+00:00</t>
+    <t>2022-07-14T22:07:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:07:14+00:00</t>
+    <t>2022-07-14T22:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:22:01+00:00</t>
+    <t>2022-07-14T22:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:40:26+00:00</t>
+    <t>2022-07-14T22:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:53:39+00:00</t>
+    <t>2022-07-15T01:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:25:21+00:00</t>
+    <t>2022-07-15T01:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:36:43+00:00</t>
+    <t>2022-07-15T02:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T02:19:36+00:00</t>
+    <t>2022-07-15T05:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T05:55:53+00:00</t>
+    <t>2022-07-15T06:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T06:56:47+00:00</t>
+    <t>2022-07-15T09:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:29:23+00:00</t>
+    <t>2022-07-18T06:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T06:14:23+00:00</t>
+    <t>2022-07-18T10:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:29:52+00:00</t>
+    <t>2022-07-19T02:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:11:08+00:00</t>
+    <t>2022-07-19T02:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:41:33+00:00</t>
+    <t>2022-07-19T03:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T03:03:01+00:00</t>
+    <t>2022-07-20T03:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T03:55:17+00:00</t>
+    <t>2022-07-20T05:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:59:04+00:00</t>
+    <t>2022-07-20T11:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T11:26:29+00:00</t>
+    <t>2022-07-20T14:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:25:34+00:00</t>
+    <t>2022-07-20T14:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:32:15+00:00</t>
+    <t>2022-07-20T15:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:52:47+00:00</t>
+    <t>2022-07-22T08:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:06:56+00:00</t>
+    <t>2022-07-22T08:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:10:06+00:00</t>
+    <t>2022-07-22T23:43:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T23:43:37+00:00</t>
+    <t>2022-07-25T10:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T10:03:37+00:00</t>
+    <t>2022-07-26T10:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T10:29:08+00:00</t>
+    <t>2022-07-26T11:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T11:00:46+00:00</t>
+    <t>2022-07-26T13:37:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:37:47+00:00</t>
+    <t>2022-07-26T15:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:08:06+00:00</t>
+    <t>2022-07-26T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:33:27+00:00</t>
+    <t>2022-07-27T07:18:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T07:18:31+00:00</t>
+    <t>2022-07-29T07:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T07:47:58+00:00</t>
+    <t>2022-07-29T11:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:35:01+00:00</t>
+    <t>2022-08-01T00:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T00:51:04+00:00</t>
+    <t>2022-08-01T08:30:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:30:35+00:00</t>
+    <t>2022-08-01T08:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:45:03+00:00</t>
+    <t>2022-08-01T08:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:55:33+00:00</t>
+    <t>2022-08-01T09:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
